--- a/public/Excel/2data dami.xlsx
+++ b/public/Excel/2data dami.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\okann\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9349E7F-5671-4145-95B8-72BD9580322E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D9C9D7-3BDC-433F-AA49-73A98E811AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="24">
   <si>
     <t>nama</t>
   </si>
@@ -42,6 +42,9 @@
     <t>kelas</t>
   </si>
   <si>
+    <t>jurusan</t>
+  </si>
+  <si>
     <t>no_kelas</t>
   </si>
   <si>
@@ -90,28 +93,16 @@
     <t>XI</t>
   </si>
   <si>
-    <t>gender</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>akuntansi</t>
-  </si>
-  <si>
-    <t>rekayasa perangkat lunak</t>
-  </si>
-  <si>
-    <t>multimedia</t>
-  </si>
-  <si>
-    <t>jurusan</t>
+    <t>Rekayasa perangkat  Lunak</t>
   </si>
   <si>
     <t>Akuntansi</t>
+  </si>
+  <si>
+    <t>Multimedia</t>
+  </si>
+  <si>
+    <t>Teknik Komputer dan Jaringan</t>
   </si>
 </sst>
 </file>
@@ -464,21 +455,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0027BA82-435A-4A4D-9AB8-3DC2E69B4073}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.90625" customWidth="1"/>
-    <col min="5" max="5" width="25.1796875" customWidth="1"/>
+    <col min="4" max="4" width="29.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -492,290 +482,245 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>1256749638</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>2536558468</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>8976451325</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>1245255615</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>4526485868</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>5246236158</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>2458521655</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>4623157845</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10">
         <v>4653216858</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11">
         <v>4568226597</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12">
         <v>3654824821</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
         <v>2</v>
       </c>
-      <c r="E12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13">
         <v>4562879163</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
         <v>2</v>
       </c>
-      <c r="E13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14">
         <v>4566222553</v>
       </c>
       <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>18</v>
-      </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-      <c r="E14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>17</v>
       </c>
       <c r="B15">
         <v>4659213578</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
         <v>2</v>
-      </c>
-      <c r="E15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
